--- a/data/3 - 15MHZ_01-terra.xlsx
+++ b/data/3 - 15MHZ_01-terra.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -344,541 +344,540 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="13" width="12.28515625" customWidth="1"/>
+    <col min="1" max="13" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>-28.18</v>
+        <v>-30.95</v>
       </c>
       <c r="B1">
-        <v>-26.49</v>
+        <v>-29.35</v>
       </c>
       <c r="C1">
-        <v>-25.22</v>
+        <v>-23.55</v>
       </c>
       <c r="D1">
-        <v>-24.5</v>
+        <v>-22.64</v>
       </c>
       <c r="E1">
-        <v>-24.52</v>
+        <v>-22.46</v>
       </c>
       <c r="F1">
-        <v>-24.44</v>
+        <v>-22.55</v>
       </c>
       <c r="G1">
-        <v>-24.61</v>
+        <v>-24.23</v>
       </c>
       <c r="H1">
-        <v>-25.09</v>
+        <v>-24.08</v>
       </c>
       <c r="I1">
-        <v>-24.31</v>
+        <v>-25.13</v>
       </c>
       <c r="J1">
-        <v>-24.23</v>
+        <v>-26.79</v>
       </c>
       <c r="K1">
-        <v>-24.78</v>
+        <v>-25.9</v>
       </c>
       <c r="L1">
-        <v>-26.46</v>
+        <v>-27.3</v>
       </c>
       <c r="M1">
-        <v>-29.62</v>
+        <v>-29.09</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>-24.76</v>
+        <v>-29.81</v>
       </c>
       <c r="B2">
-        <v>-24.55</v>
+        <v>-30.16</v>
       </c>
       <c r="C2">
-        <v>-24.15</v>
+        <v>-28.06</v>
       </c>
       <c r="D2">
-        <v>-24.26</v>
+        <v>-26.84</v>
       </c>
       <c r="E2">
-        <v>-25.04</v>
+        <v>-27.79</v>
       </c>
       <c r="F2">
-        <v>-26.82</v>
+        <v>-30.18</v>
       </c>
       <c r="G2">
-        <v>-26.72</v>
+        <v>-29.66</v>
       </c>
       <c r="H2">
-        <v>-28.09</v>
+        <v>-29.88</v>
       </c>
       <c r="I2">
-        <v>-28.18</v>
+        <v>-29.73</v>
       </c>
       <c r="J2">
-        <v>-30.26</v>
+        <v>-29.18</v>
       </c>
       <c r="K2">
-        <v>-29.9</v>
+        <v>-29.7</v>
       </c>
       <c r="L2">
-        <v>-22.49</v>
+        <v>-24.65</v>
       </c>
       <c r="M2">
-        <v>-25.4</v>
+        <v>-24.14</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>-22.14</v>
+        <v>-26.41</v>
       </c>
       <c r="B3">
-        <v>-25.34</v>
+        <v>-30.94</v>
       </c>
       <c r="C3">
-        <v>-29.15</v>
+        <v>-35.08</v>
       </c>
       <c r="D3">
-        <v>-28.73</v>
+        <v>-34.17</v>
       </c>
       <c r="E3">
-        <v>-28.61</v>
+        <v>-32.15</v>
       </c>
       <c r="F3">
-        <v>-29.2</v>
+        <v>-32.64</v>
       </c>
       <c r="G3">
-        <v>-28.85</v>
+        <v>-37.04</v>
       </c>
       <c r="H3">
-        <v>-29.97</v>
+        <v>-36.75</v>
       </c>
       <c r="I3">
-        <v>-30.9</v>
+        <v>-36.44</v>
       </c>
       <c r="J3">
-        <v>-30.98</v>
+        <v>-36.69</v>
       </c>
       <c r="K3">
-        <v>-30.98</v>
+        <v>-38.64</v>
       </c>
       <c r="L3">
-        <f>-26.88</f>
-        <v>-26.88</v>
+        <v>-31.35</v>
       </c>
       <c r="M3">
-        <v>-26.06</v>
+        <v>-23.92</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>-20.58</v>
+        <v>-24.89</v>
       </c>
       <c r="B4">
-        <v>-23.64</v>
+        <v>-29.79</v>
       </c>
       <c r="C4">
-        <v>-28.26</v>
+        <v>-35.08</v>
       </c>
       <c r="D4">
-        <v>-27.31</v>
+        <v>-33.58</v>
       </c>
       <c r="E4">
-        <v>-28.23</v>
+        <v>-31.59</v>
       </c>
       <c r="F4">
-        <v>-27.96</v>
+        <v>-32.049999999999997</v>
       </c>
       <c r="G4">
-        <v>-28.06</v>
+        <v>-36.159999999999997</v>
       </c>
       <c r="H4">
-        <v>-28.47</v>
+        <v>-36.130000000000003</v>
       </c>
       <c r="I4">
-        <v>-29.87</v>
+        <v>-35.619999999999997</v>
       </c>
       <c r="J4">
-        <v>-30.18</v>
+        <v>-36.1</v>
       </c>
       <c r="K4">
-        <v>-30.5</v>
+        <v>-36.950000000000003</v>
       </c>
       <c r="L4">
-        <v>-33.46</v>
+        <v>-42.64</v>
       </c>
       <c r="M4">
-        <v>-31.99</v>
+        <v>-31.41</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>-20.440000000000001</v>
+        <v>-24.42</v>
       </c>
       <c r="B5">
-        <v>-25</v>
+        <v>-31.36</v>
       </c>
       <c r="C5">
-        <v>-28.24</v>
+        <v>-34.44</v>
       </c>
       <c r="D5">
-        <v>-23.41</v>
+        <v>-33.81</v>
       </c>
       <c r="E5">
-        <v>-27.86</v>
+        <v>-31.65</v>
       </c>
       <c r="F5">
-        <v>-27.37</v>
+        <v>-32.28</v>
       </c>
       <c r="G5">
-        <v>-28.21</v>
+        <v>-36.72</v>
       </c>
       <c r="H5">
-        <v>-28.33</v>
+        <v>-37.01</v>
       </c>
       <c r="I5">
-        <v>-28.44</v>
+        <v>-36.64</v>
       </c>
       <c r="J5">
-        <v>-30.02</v>
+        <v>-36.409999999999997</v>
       </c>
       <c r="K5">
-        <v>-30.02</v>
+        <v>-35.340000000000003</v>
       </c>
       <c r="L5">
-        <v>-32.590000000000003</v>
+        <v>-40.69</v>
       </c>
       <c r="M5">
-        <v>-36.94</v>
+        <v>-40.76</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>-20.96</v>
+        <v>-25.06</v>
       </c>
       <c r="B6">
-        <v>-24.65</v>
+        <v>-30.08</v>
       </c>
       <c r="C6">
-        <v>-23.13</v>
+        <v>-35.6</v>
       </c>
       <c r="D6">
-        <v>-23.9</v>
+        <v>-34.76</v>
       </c>
       <c r="E6">
-        <v>-28.06</v>
+        <v>-33.33</v>
       </c>
       <c r="F6">
-        <v>-27.6</v>
+        <v>-34.26</v>
       </c>
       <c r="G6">
-        <v>-28.33</v>
+        <v>-37.21</v>
       </c>
       <c r="H6">
-        <v>-28.72</v>
+        <v>-37.43</v>
       </c>
       <c r="I6">
-        <v>-24.81</v>
+        <v>-37.03</v>
       </c>
       <c r="J6">
-        <v>-30.47</v>
+        <v>-36.53</v>
       </c>
       <c r="K6">
-        <v>-28.69</v>
+        <v>-36.1</v>
       </c>
       <c r="L6">
-        <v>-31.69</v>
+        <v>-40.04</v>
       </c>
       <c r="M6">
-        <v>-37.909999999999997</v>
+        <v>-48.24</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>-20.8</v>
+        <v>-24.19</v>
       </c>
       <c r="B7">
-        <v>-26.06</v>
+        <v>-31.28</v>
       </c>
       <c r="C7">
-        <v>-27.31</v>
+        <v>-35.049999999999997</v>
       </c>
       <c r="D7">
-        <v>-27.86</v>
+        <v>-33.67</v>
       </c>
       <c r="E7">
-        <v>-28.09</v>
+        <v>-32.409999999999997</v>
       </c>
       <c r="F7">
-        <v>-27.84</v>
+        <v>-34.880000000000003</v>
       </c>
       <c r="G7">
-        <v>-28.56</v>
+        <v>-36.950000000000003</v>
       </c>
       <c r="H7">
-        <v>-29.89</v>
+        <v>-37.79</v>
       </c>
       <c r="I7">
-        <v>-24.92</v>
+        <v>-37.119999999999997</v>
       </c>
       <c r="J7">
-        <v>-28.98</v>
+        <v>-36.46</v>
       </c>
       <c r="K7">
-        <v>-29.01</v>
+        <v>-36.33</v>
       </c>
       <c r="L7">
-        <v>-31.42</v>
+        <v>-40.03</v>
       </c>
       <c r="M7">
-        <v>-37.42</v>
+        <v>-50.33</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>-21.11</v>
+        <v>-23.72</v>
       </c>
       <c r="B8">
-        <v>-24.55</v>
+        <v>-31.28</v>
       </c>
       <c r="C8">
-        <v>-27.65</v>
+        <v>-35.049999999999997</v>
       </c>
       <c r="D8">
-        <v>-25.86</v>
+        <v>-33.119999999999997</v>
       </c>
       <c r="E8">
-        <v>-24.7</v>
+        <v>-32.28</v>
       </c>
       <c r="F8">
-        <v>-28.21</v>
+        <v>-34.380000000000003</v>
       </c>
       <c r="G8">
-        <v>-28.47</v>
+        <v>-36.71</v>
       </c>
       <c r="H8">
-        <v>-29.59</v>
+        <v>-37.29</v>
       </c>
       <c r="I8">
-        <v>-24.9</v>
+        <v>-36.36</v>
       </c>
       <c r="J8">
-        <v>-28.42</v>
+        <v>-36.56</v>
       </c>
       <c r="K8">
-        <v>-29.48</v>
+        <v>-36.46</v>
       </c>
       <c r="L8">
-        <v>-30.89</v>
+        <v>-39.32</v>
       </c>
       <c r="M8">
-        <v>-37.450000000000003</v>
+        <v>-50.31</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>-21.7</v>
+        <v>-22.58</v>
       </c>
       <c r="B9">
-        <v>-27.65</v>
+        <v>-31.56</v>
       </c>
       <c r="C9">
-        <v>-28.14</v>
+        <v>-34.94</v>
       </c>
       <c r="D9">
-        <v>-28.77</v>
+        <v>-33.89</v>
       </c>
       <c r="E9">
-        <v>-26.01</v>
+        <v>-34.229999999999997</v>
       </c>
       <c r="F9">
-        <v>-25.72</v>
+        <v>-34.130000000000003</v>
       </c>
       <c r="G9">
-        <v>-27.6</v>
+        <v>-35.799999999999997</v>
       </c>
       <c r="H9">
-        <v>-29.36</v>
+        <v>-36.07</v>
       </c>
       <c r="I9">
-        <v>-29.03</v>
+        <v>-36.409999999999997</v>
       </c>
       <c r="J9">
-        <v>-28.26</v>
+        <v>-36.56</v>
       </c>
       <c r="K9">
-        <v>-29.77</v>
+        <v>-35.700000000000003</v>
       </c>
       <c r="L9">
-        <v>-30.47</v>
+        <v>-39.33</v>
       </c>
       <c r="M9">
-        <v>-37.36</v>
+        <v>-50.04</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>-22.36</v>
+        <v>-22.55</v>
       </c>
       <c r="B10">
-        <v>-24.72</v>
+        <v>-35.42</v>
       </c>
       <c r="C10">
-        <v>-28.24</v>
+        <v>-35.39</v>
       </c>
       <c r="D10">
-        <v>-27.99</v>
+        <v>-33.93</v>
       </c>
       <c r="E10">
-        <v>-27.99</v>
+        <v>-34.380000000000003</v>
       </c>
       <c r="F10">
-        <v>-27.15</v>
+        <v>-34.130000000000003</v>
       </c>
       <c r="G10">
-        <v>-24.5</v>
+        <v>-35.51</v>
       </c>
       <c r="H10">
-        <v>-29.87</v>
+        <v>-36.07</v>
       </c>
       <c r="I10">
-        <v>-28.67</v>
+        <v>-36.53</v>
       </c>
       <c r="J10">
-        <v>-29.02</v>
+        <v>-37.06</v>
       </c>
       <c r="K10">
-        <v>-28.98</v>
+        <v>-35.92</v>
       </c>
       <c r="L10">
-        <v>-29.77</v>
+        <v>-39.630000000000003</v>
       </c>
       <c r="M10">
-        <v>-37.03</v>
+        <v>-49</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>-23.9</v>
+        <v>-24.67</v>
       </c>
       <c r="B11">
-        <v>-26.16</v>
+        <v>-42.09</v>
       </c>
       <c r="C11">
-        <v>-27.65</v>
+        <v>-35.78</v>
       </c>
       <c r="D11">
-        <v>-27.28</v>
+        <v>-32.72</v>
       </c>
       <c r="E11">
-        <v>-27.04</v>
+        <v>-33.99</v>
       </c>
       <c r="F11">
-        <v>-25.92</v>
+        <v>-34.630000000000003</v>
       </c>
       <c r="G11">
-        <v>-27.94</v>
+        <v>-35.549999999999997</v>
       </c>
       <c r="H11">
-        <v>-29.36</v>
+        <v>-36.299999999999997</v>
       </c>
       <c r="I11">
-        <v>-29.52</v>
+        <v>-36.61</v>
       </c>
       <c r="J11">
-        <v>-30.2</v>
+        <v>-36.15</v>
       </c>
       <c r="K11">
-        <v>-28.67</v>
+        <v>-36</v>
       </c>
       <c r="L11">
-        <v>-25.5</v>
+        <v>-40.26</v>
       </c>
       <c r="M11">
-        <v>-36.700000000000003</v>
+        <v>-49.42</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>-28.8</v>
+        <v>-34.32</v>
       </c>
       <c r="B12">
-        <v>-30.52</v>
+        <v>-43.04</v>
       </c>
       <c r="C12">
-        <v>-28.26</v>
+        <v>-41.38</v>
       </c>
       <c r="D12">
-        <v>-28.09</v>
+        <v>-34.880000000000003</v>
       </c>
       <c r="E12">
-        <v>-28.85</v>
+        <v>-36.549999999999997</v>
       </c>
       <c r="F12">
-        <v>-27.99</v>
+        <v>-37.04</v>
       </c>
       <c r="G12">
-        <v>-29.01</v>
+        <v>-36.840000000000003</v>
       </c>
       <c r="H12">
-        <v>-30.01</v>
+        <v>-37.619999999999997</v>
       </c>
       <c r="I12">
-        <v>-29.31</v>
+        <v>-38.090000000000003</v>
       </c>
       <c r="J12">
-        <v>-29.9</v>
+        <v>-37.119999999999997</v>
       </c>
       <c r="K12">
-        <v>-29.17</v>
+        <v>-37.159999999999997</v>
       </c>
       <c r="L12">
-        <v>-28.95</v>
+        <v>-41.55</v>
       </c>
       <c r="M12">
-        <v>-37.36</v>
+        <v>-50.65</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>-33.82</v>
+        <v>-48.14</v>
       </c>
       <c r="B13">
-        <v>-32.71</v>
+        <v>-44.51</v>
       </c>
       <c r="C13">
-        <v>-31.8</v>
+        <v>-42.74</v>
       </c>
       <c r="D13">
-        <v>-32.94</v>
+        <v>-41.6</v>
       </c>
       <c r="E13">
-        <v>-33.770000000000003</v>
+        <v>-42.81</v>
       </c>
       <c r="F13">
-        <v>-32.979999999999997</v>
+        <v>-43.67</v>
       </c>
       <c r="G13">
-        <v>-33.72</v>
+        <v>-43.64</v>
       </c>
       <c r="H13">
-        <v>-34.01</v>
+        <v>-43.99</v>
       </c>
       <c r="I13">
-        <v>-34.21</v>
+        <v>-44.07</v>
       </c>
       <c r="J13">
-        <v>-33.79</v>
+        <v>-44.17</v>
       </c>
       <c r="K13">
-        <v>-33.32</v>
+        <v>-45.37</v>
       </c>
       <c r="L13">
-        <v>-36.07</v>
+        <v>-48.56</v>
       </c>
       <c r="M13">
-        <v>-38.28</v>
+        <v>-52.97</v>
       </c>
     </row>
   </sheetData>
